--- a/biology/Zoologie/Garrulaxe_à_gorge_jaune/Garrulaxe_à_gorge_jaune.xlsx
+++ b/biology/Zoologie/Garrulaxe_à_gorge_jaune/Garrulaxe_à_gorge_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_gorge_jaune</t>
+          <t>Garrulaxe_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterorhinus galbanus
 Le Garrulaxe à gorge jaune (Pterorhinus galbanus) est une espèce d'oiseaux de la famille des Leiothrichidae. Cet oiseau peuple le Patkai, le massif montagneux formant une frontière naturelle entre la Birmanie et l'Inde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_gorge_jaune</t>
+          <t>Garrulaxe_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pterorhinus galbanus a été décrite pour la première fois en 1874 par le topographe, géologue et naturaliste britannique Henry Haversham Godwin-Austen (1834-1923) sous le protonyme Garrulax galbanus[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pterorhinus galbanus a été décrite pour la première fois en 1874 par le topographe, géologue et naturaliste britannique Henry Haversham Godwin-Austen (1834-1923) sous le protonyme Garrulax galbanus,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_gorge_jaune</t>
+          <t>Garrulaxe_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1874, Godwin-Austen indique que cet oiseau mesure environ 23 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1874, Godwin-Austen indique que cet oiseau mesure environ 23 cm.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_gorge_jaune</t>
+          <t>Garrulaxe_à_gorge_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Major H. H. Godwin-Austen, « Descriptions of Ten new Birds from the Nágá Hills and Munipúr Valley, N.E. Frontier of Bengal », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 42, no 1,‎ 1874, p. 43–48 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1096-3642.1874.TB02450.X, lire en ligne)</t>
         </is>
